--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\Opencart\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61F1EE-6F2E-4BEB-82D8-FD61B34A1515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879721B-7A50-4017-9EE8-3B502258B42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -48,28 +48,19 @@
     <t>Sunday</t>
   </si>
   <si>
-    <t>test2@mail.com</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>bob1</t>
   </si>
   <si>
-    <t>bobby2</t>
-  </si>
-  <si>
     <t>testphone1</t>
   </si>
   <si>
-    <t>testphone2</t>
-  </si>
-  <si>
     <t>test1@mail.com</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +399,7 @@
     <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,16 +415,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -441,28 +435,13 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5653A830-13F3-4F4D-B3A8-996380DFB9A3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{5192F919-5B7B-42CD-B99D-293205278ED3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5192F919-5B7B-42CD-B99D-293205278ED3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3879721B-7A50-4017-9EE8-3B502258B42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D0C742-8D71-4ADF-B017-9ECA53F57C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Username</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Website Name</t>
+  </si>
+  <si>
+    <t>Screen_1</t>
+  </si>
+  <si>
+    <t>Screen_2</t>
+  </si>
+  <si>
+    <t>bob2</t>
+  </si>
+  <si>
+    <t>test2@mail.com</t>
+  </si>
+  <si>
+    <t>testphone2</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,14 +121,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,9 +429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -400,48 +442,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5192F919-5B7B-42CD-B99D-293205278ED3}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{5192F919-5B7B-42CD-B99D-293205278ED3}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{B97B4BB3-F143-4564-A272-85016A676DF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D0C742-8D71-4ADF-B017-9ECA53F57C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB39D72-27FB-43D6-A5AB-276F62D44916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -72,23 +72,53 @@
     <t>Screen_2</t>
   </si>
   <si>
+    <t>Screen_3</t>
+  </si>
+  <si>
     <t>bob2</t>
   </si>
   <si>
+    <t>testphone2</t>
+  </si>
+  <si>
     <t>test2@mail.com</t>
   </si>
   <si>
-    <t>testphone2</t>
-  </si>
-  <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>test12345</t>
+  </si>
+  <si>
+    <t>test45678</t>
+  </si>
+  <si>
+    <t>testabcd</t>
+  </si>
+  <si>
+    <t>testefgh</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>08/26/205</t>
+  </si>
+  <si>
+    <t>08/30/206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +177,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,41 +468,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +530,17 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -502,13 +559,22 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -520,18 +586,29 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5192F919-5B7B-42CD-B99D-293205278ED3}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{B97B4BB3-F143-4564-A272-85016A676DF5}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{2AD9682B-C677-46CE-AE0C-D11AA0A19AB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB39D72-27FB-43D6-A5AB-276F62D44916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F1A84-9A9D-4E76-A950-CDD099921435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -87,18 +87,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>test12345</t>
-  </si>
-  <si>
-    <t>test45678</t>
-  </si>
-  <si>
-    <t>testabcd</t>
-  </si>
-  <si>
-    <t>testefgh</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -112,6 +100,12 @@
   </si>
   <si>
     <t>08/30/206</t>
+  </si>
+  <si>
+    <t>N-9876</t>
+  </si>
+  <si>
+    <t>N-7867</t>
   </si>
 </sst>
 </file>
@@ -177,12 +171,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -478,38 +475,39 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -531,13 +529,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -559,14 +557,12 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,14 +584,12 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F1A84-9A9D-4E76-A950-CDD099921435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279387B2-57A2-4A37-8816-FC290DC9233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -102,10 +102,7 @@
     <t>08/30/206</t>
   </si>
   <si>
-    <t>N-9876</t>
-  </si>
-  <si>
-    <t>N-7867</t>
+    <t>N-1234</t>
   </si>
 </sst>
 </file>
@@ -557,10 +554,10 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
@@ -584,10 +581,10 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>

--- a/testData/TestDataSheet.xlsx
+++ b/testData/TestDataSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace\DemoTestProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279387B2-57A2-4A37-8816-FC290DC9233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3945A-3BBC-4C94-8029-AEEC2524FB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>08/30/206</t>
-  </si>
-  <si>
-    <t>N-1234</t>
   </si>
 </sst>
 </file>
@@ -554,10 +551,12 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="G4" s="4">
+        <v>111222</v>
+      </c>
+      <c r="H4" s="3">
+        <v>98675</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
@@ -581,10 +580,12 @@
       <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="G5" s="4">
+        <v>222345</v>
+      </c>
+      <c r="H5" s="3">
+        <v>897545</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
